--- a/excel-data/Mens-data.xlsx
+++ b/excel-data/Mens-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan.joe.haboc\Desktop\Polder\the_odin_project\shop-app\excel-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9FC7670-E506-46A5-A01E-916BEC91B305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C2EA6F-2C26-4C10-9713-469EE8841380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8C7BC18F-668C-47E6-9195-CDD9A9CF03AB}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'output (5)'!$A$1:$D$7</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'output (5)'!$A$1:$E$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Camo Down Vest</t>
   </si>
@@ -97,16 +97,111 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Blue Green T-shirt</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/1516680/pexels-photo-1516680.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/868113/pexels-photo-868113.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>White Longsleeve</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/1232459/pexels-photo-1232459.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Blue Lacoste T-shirt</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/936119/pexels-photo-936119.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Gray V-neck T-shirt</t>
+  </si>
+  <si>
+    <t>Light Blue T-shirt with California Logo</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/567459/pexels-photo-567459.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/775358/pexels-photo-775358.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Whtie V-neck T-shirt</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/1018911/pexels-photo-1018911.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Yellow T-shirt</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/3147528/pexels-photo-3147528.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Orange Crew-neck Shirt</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/4045762/pexels-photo-4045762.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Black Longsleeve</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/733500/pexels-photo-733500.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Pink Nike T-shirt</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/12169174/pexels-photo-12169174.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Blue Tank Top</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/1887975/pexels-photo-1887975.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Dark Green T-shirt</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/12113101/pexels-photo-12113101.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Purple T-shirt</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/9970913/pexels-photo-9970913.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Orange T-shirt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,13 +224,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -153,10 +251,11 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{E3E1031E-87E9-4915-8969-74FD9B7B756E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="Column1._id" tableColumnId="1"/>
       <queryTableField id="2" name="Column1.name" tableColumnId="2"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
       <queryTableField id="3" name="Column1.imageUrl" tableColumnId="3"/>
       <queryTableField id="4" name="Column1.price" tableColumnId="4"/>
     </queryTableFields>
@@ -165,11 +264,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8CACAB79-2D00-4305-85D5-4CC43E65C8E9}" name="output__5" displayName="output__5" ref="A1:D7" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D7" xr:uid="{8CACAB79-2D00-4305-85D5-4CC43E65C8E9}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8CACAB79-2D00-4305-85D5-4CC43E65C8E9}" name="output__5" displayName="output__5" ref="A1:E21" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E21" xr:uid="{8CACAB79-2D00-4305-85D5-4CC43E65C8E9}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{68C1610F-CBDA-4AFC-999A-1C2B5221C6A7}" uniqueName="1" name="title" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{647E5C41-CDAB-4236-BDEA-56DE744CF998}" uniqueName="2" name="name" queryTableFieldId="2"/>
+    <tableColumn id="5" xr3:uid="{58CD1EE4-FABE-41B8-86AD-90FB3BEEB0D4}" uniqueName="5" name="description" queryTableFieldId="5"/>
     <tableColumn id="3" xr3:uid="{AC979516-3AA7-46DC-AD82-1EAA258F6D8B}" uniqueName="3" name="imageUrl" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{4DCD6A5C-6315-42B1-AA61-2F894DC88EF4}" uniqueName="4" name="price" queryTableFieldId="4"/>
   </tableColumns>
@@ -474,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11077E77-A0A9-44A5-8C8F-E0D7485156DB}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,7 +588,7 @@
     <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -496,101 +596,303 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>25</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{57373C85-32C9-479D-8F37-6407E3267664}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/excel-data/Mens-data.xlsx
+++ b/excel-data/Mens-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan.joe.haboc\Desktop\Polder\the_odin_project\shop-app\excel-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C2EA6F-2C26-4C10-9713-469EE8841380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC25C043-61B8-4D79-BA37-A0CFABA76967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8C7BC18F-668C-47E6-9195-CDD9A9CF03AB}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>Camo Down Vest</t>
   </si>
@@ -72,9 +72,6 @@
     <t>https://i.ibb.co/RvwnBL8/pink-shirt.png</t>
   </si>
   <si>
-    <t>Jean Long Sleeve</t>
-  </si>
-  <si>
     <t>https://i.ibb.co/VpW4x5t/roll-up-jean-shirt.png</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>https://images.pexels.com/photos/775358/pexels-photo-775358.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
   </si>
   <si>
-    <t>Whtie V-neck T-shirt</t>
-  </si>
-  <si>
     <t>https://images.pexels.com/photos/1018911/pexels-photo-1018911.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
   </si>
   <si>
@@ -184,13 +178,79 @@
   </si>
   <si>
     <t>Orange T-shirt</t>
+  </si>
+  <si>
+    <t>A camouflage down vest is an essential piece of equipment for any hunter. Whether you're a beginner or a seasoned hunter, this vest will help you stay warm and comfortable while you're in the field.</t>
+  </si>
+  <si>
+    <t>A floral t-shirt is a classic wardrobe staple that's easy to style. You can wear it to work or to the weekend, and it's great to tuck into a pair of jeans.</t>
+  </si>
+  <si>
+    <t>Black and white longsleeve. Worn by gothic teens.</t>
+  </si>
+  <si>
+    <t>If you are a Pink fan, you will love this t-shirt! Available in white or black, it will also make a great gift for a Pink fan.</t>
+  </si>
+  <si>
+    <t>Jean Longsleeve</t>
+  </si>
+  <si>
+    <t>This Jean Long Sleeve is the perfect combination of comfort and style. You'll want one in every color.</t>
+  </si>
+  <si>
+    <t>A classic burgundy T-shirt is a timeless garment that can be worn anywhere.</t>
+  </si>
+  <si>
+    <t>The Blue Green T-shirt is a unique blend of organic cotton in a soft drapey knit. It's a super-soft t-shirt that has a unique drape and is lightweight.</t>
+  </si>
+  <si>
+    <t>A white longsleeve is like a blank canvas, waiting to be painted. It's a simple, stylish way to jazz up your outfit.</t>
+  </si>
+  <si>
+    <t>From the past to present, blue Lacoste T-shirts have always maintained their iconic status. If you are into retro fashion or just want to own a piece of Lacoste history, this is the perfect shirt for you.</t>
+  </si>
+  <si>
+    <t>Gray V-neck T-shirt. Made of 100% cotton, this T-shirt has a classic cut and is available in a variety of colors and sizes.</t>
+  </si>
+  <si>
+    <t>This design comes in a light blue color with a California logo on it.</t>
+  </si>
+  <si>
+    <t>White V-neck T-shirt</t>
+  </si>
+  <si>
+    <t>This stylish V-neck top with a crew neck and short sleeves is made from a soft and stretchy cotton jersey.</t>
+  </si>
+  <si>
+    <t>Yellow is the colour of freshness, hope and optimism. It's also the colour of this T-shirt.</t>
+  </si>
+  <si>
+    <t>The crew-neck shirt is a staple that is hard to go wrong with. This simple, classic design is perfect for any occasion.</t>
+  </si>
+  <si>
+    <t>Black Longsleeve is the definitive black longsleeve. Offering a stylish, relaxed fit, this long-sleeve shirt is ideal for the office or casual wear.</t>
+  </si>
+  <si>
+    <t>Pink Nike T-shirt is a cotton T-shirt that is made and designed by Nike. The Nike logo is displayed on the front of the shirt.</t>
+  </si>
+  <si>
+    <t>This blue tank top is the perfect wardrobe accessory for your next beach or pool party.</t>
+  </si>
+  <si>
+    <t>Discover this cool t-shirt with a green color and a dark impression in a classic fit. The cool dark green color will match with any style and will make you feel comfortable all day long.</t>
+  </si>
+  <si>
+    <t>The Purple T-shirt is a classic. It's easy to wear, it's comfortable and it's a great reminder of your love for Purple. </t>
+  </si>
+  <si>
+    <t>Orange t-shirt is a great gift for any occasion, whether you're giving it to a friend or yourself.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +265,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F2937"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -228,9 +294,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -576,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11077E77-A0A9-44A5-8C8F-E0D7485156DB}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -590,28 +657,31 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
@@ -621,11 +691,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
@@ -635,11 +708,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -649,11 +725,14 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -663,13 +742,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -677,13 +759,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -691,13 +776,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -705,13 +793,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -719,13 +810,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>55</v>
@@ -733,13 +827,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>35</v>
@@ -747,13 +844,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E12">
         <v>45</v>
@@ -761,13 +861,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -775,13 +878,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>40</v>
@@ -789,13 +895,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>45</v>
@@ -803,13 +912,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>65</v>
@@ -817,13 +929,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>79</v>
@@ -831,13 +946,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>89</v>
@@ -845,13 +963,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>90</v>
@@ -859,13 +980,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>99</v>
@@ -873,13 +997,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>49</v>
